--- a/需求登记表/微购物需求登记表.xlsx
+++ b/需求登记表/微购物需求登记表.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24620" windowHeight="15620"/>
+    <workbookView xWindow="1500" yWindow="0" windowWidth="24340" windowHeight="15620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="微购物" sheetId="1" r:id="rId1"/>
     <sheet name="问题反馈" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="已完成" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>重要</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,50 +106,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>支持商品限制购买件数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商品详情页增加尺码对照表展示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>支持库存图片展示，切换不同的颜色，展示不同的图片和价格。同时颜色使用颜色小图展示，颜色小图由主图生成。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品二维码扫描前前需要关注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未付款订单及时提醒用户付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>需求内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>支付超卖问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页图片错位。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30号前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正在做</t>
-  </si>
-  <si>
-    <t>正在做</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30号前</t>
+    <t>负责方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微购物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微购物+银泰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面流量统计
+站点流量统计分析表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微购物后台商品列表增加一列“折扣值”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善品牌墙所有相关功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单填写页需要可填写发票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒杀等促销功能</t>
+  </si>
+  <si>
+    <t>未付款订单及时提醒用户付款。多长时间提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持商品限制购买件数（主要针对特殊活动或特别商品而言）。目前有哪些支持？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微购物</t>
+  </si>
+  <si>
+    <t>首页可配置。目前需要支持修改文字和调整显示顺序。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天下午4点系统自动提醒前一天下单未付款用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格和要求：
+A、具有快速索引功能。
+B、品牌墙内的所有品牌程序自动获取。
+C、品牌墙第一页，展示热门推荐的品牌。热门推荐的品牌由营运人员配置获取，配置的先后顺序决定展示的先后顺序。
+D、点击品牌进入品牌对应的商品列表的所有商品，都是程序自动匹配的，不需要人工配置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商详页面颜色切换功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+支持库存图片展示，切换不同的颜色，展示不同的图片和价格。同时颜色使用颜色小图展示，颜色小图由主图生成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善所有商品的列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1、可支持商品置顶操作。不限制数量
+2、支持按照多维度进行排序
+3、支持搜索。包括按照商品名称、商品品牌、商品描述、商品分类等
+根据以上功能，设计具体的布局。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -340,8 +381,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -418,7 +495,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="73">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -437,6 +514,24 @@
     <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -455,6 +550,24 @@
     <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -516,7 +629,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
+      <xdr:colOff>1498600</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1346200</xdr:rowOff>
     </xdr:to>
@@ -835,21 +948,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.6640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="66.83203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="45.5" style="7" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="49.33203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="39.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="42.1640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="30" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="7" customWidth="1"/>
     <col min="7" max="7" width="11" style="7" customWidth="1"/>
     <col min="8" max="16384" width="8.83203125" style="10"/>
   </cols>
@@ -859,7 +972,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>4</v>
@@ -868,10 +981,10 @@
         <v>9</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>8</v>
@@ -887,6 +1000,9 @@
       <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="F2" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="66" customHeight="1">
       <c r="A3" s="4">
@@ -901,8 +1017,9 @@
       <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>28</v>
+      <c r="E3" s="12"/>
+      <c r="F3" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="77" customHeight="1">
@@ -915,103 +1032,147 @@
       <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="73" customHeight="1">
+      <c r="F4" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="66" customHeight="1">
       <c r="A5" s="4">
         <v>41562</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="66" customHeight="1">
+      <c r="A6" s="4">
+        <v>41600</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="77" customHeight="1">
+      <c r="A7" s="4">
+        <v>41600</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="35" customHeight="1">
+      <c r="A8" s="4">
+        <v>41600</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="127" customHeight="1">
+      <c r="A9" s="4">
+        <v>41600</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="102" customHeight="1">
+      <c r="A10" s="4">
+        <v>41600</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="76" customHeight="1">
+      <c r="A11" s="4">
+        <v>41600</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="46" customHeight="1">
+      <c r="A12" s="4">
+        <v>41600</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="52" customHeight="1">
-      <c r="A6" s="4">
-        <v>41562</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1">
-      <c r="A7" s="4">
-        <v>41562</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="66" customHeight="1">
-      <c r="A8" s="4">
-        <v>41562</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="50" customHeight="1">
-      <c r="A9" s="4">
-        <v>41562</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="57" customHeight="1">
-      <c r="A10" s="4">
-        <v>41562</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="43" customHeight="1"/>
-    <row r="12" spans="1:7" ht="40" customHeight="1">
-      <c r="B12" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="35" customHeight="1">
+      <c r="C12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="43" customHeight="1">
+      <c r="A13" s="4">
+        <v>41600</v>
+      </c>
       <c r="B13" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="62" customHeight="1"/>
+        <v>32</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1031,7 +1192,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.1640625" defaultRowHeight="38" customHeight="1" x14ac:dyDescent="0"/>
@@ -1095,16 +1256,22 @@
     </row>
     <row r="4" spans="1:7" ht="38" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="38" customHeight="1">
       <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -2465,12 +2632,67 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="9" customFormat="1" ht="44" customHeight="1">
+      <c r="A1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="10" customFormat="1" ht="73" customHeight="1">
+      <c r="A2" s="4">
+        <v>41562</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
